--- a/vocabularies/vocabulary.xlsx
+++ b/vocabularies/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L164"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,7 @@
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +465,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +496,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +527,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -554,6 +558,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,15 +589,24 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rtd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://datacite-metadata-schema.readthedocs.io/en/4.5/</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -602,23 +616,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DataCite Controlled Terms</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -628,21 +635,22 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of terms used in Datacite Schema 4.5</t>
+          <t>DataCite Controlled Terms</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -654,21 +662,22 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>Controlled vocabulary of terms used in Datacite Schema 4.5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -680,21 +689,22 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -706,21 +716,22 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.5.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -732,21 +743,22 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-03T12:00+02:00</t>
+          <t>4.5.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -758,11 +770,12 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -772,7 +785,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -784,15 +797,24 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-05-03T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -802,135 +824,135 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>datacite:resourceTypeGeneral</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>resourceTypeGeneral</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The general type of a resource.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>purl_target</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>datacite:Audiovisual</t>
+          <t>datacite:resourceTypeGeneral</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Audiovisual</t>
+          <t>resourceTypeGeneral</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A series of visual representations imparting an impression of motion when shown in succession. May or may not include sound.</t>
+          <t>The general type of a resource.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>datacite:resourceTypeGeneral</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>datacite:Book</t>
+          <t>datacite:Audiovisual</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>Audiovisual</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A medium for recording information in the form of writing or images, typically composed of many pages bound together and protected by a cover.</t>
+          <t>A series of visual representations imparting an impression of motion when shown in succession. May or may not include sound.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -946,21 +968,22 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>datacite:BookChapter</t>
+          <t>datacite:Book</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BookChapter</t>
+          <t>Book</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>One of the main divisions of a book.</t>
+          <t>A medium for recording information in the form of writing or images, typically composed of many pages bound together and protected by a cover.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -976,21 +999,22 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>datacite:Collection</t>
+          <t>datacite:BookChapter</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Collection</t>
+          <t>BookChapter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>An aggregation of resources, which may encompass collections of one resourceType as well as those of mixed types. A collection is described as a group; its parts may also be separately described.</t>
+          <t>One of the main divisions of a book.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1006,21 +1030,22 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>datacite:ComputationalNotebook</t>
+          <t>datacite:Collection</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ComputationalNotebook</t>
+          <t>Collection</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A virtual notebook environment used for literate programming.</t>
+          <t>An aggregation of resources, which may encompass collections of one resourceType as well as those of mixed types. A collection is described as a group; its parts may also be separately described.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1036,21 +1061,22 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>datacite:ConferencePaper</t>
+          <t>datacite:ComputationalNotebook</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ConferencePaper</t>
+          <t>ComputationalNotebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Article that is written with the goal of being accepted to a conference.</t>
+          <t>A virtual notebook environment used for literate programming.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1066,21 +1092,22 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>datacite:ConferenceProceeding</t>
+          <t>datacite:ConferencePaper</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ConferenceProceeding</t>
+          <t>ConferencePaper</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Collection of academic papers published in the context of an academic conference.</t>
+          <t>Article that is written with the goal of being accepted to a conference.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1096,21 +1123,22 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>datacite:DataPaper</t>
+          <t>datacite:ConferenceProceeding</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DataPaper</t>
+          <t>ConferenceProceeding</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A factual and objective publication with a focused intent to identify and describe specific data, sets of data, or data collections to facilitate discoverability.</t>
+          <t>Collection of academic papers published in the context of an academic conference.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1126,21 +1154,22 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>datacite:Dataset</t>
+          <t>datacite:DataPaper</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dataset</t>
+          <t>DataPaper</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Data encoded in a defined structure.</t>
+          <t>A factual and objective publication with a focused intent to identify and describe specific data, sets of data, or data collections to facilitate discoverability.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1156,21 +1185,22 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>datacite:Dissertation</t>
+          <t>datacite:Dataset</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissertation</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A written essay, treatise, or thesis, especially one written by a candidate for the degree of Doctor of Philosophy.</t>
+          <t>Data encoded in a defined structure.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1186,21 +1216,22 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>datacite:Event</t>
+          <t>datacite:Dissertation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Dissertation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A non-persistent, time-based occurrence.</t>
+          <t>A written essay, treatise, or thesis, especially one written by a candidate for the degree of Doctor of Philosophy.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1216,21 +1247,22 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>datacite:Image</t>
+          <t>datacite:Event</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A visual representation other than text.</t>
+          <t>A non-persistent, time-based occurrence.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1246,21 +1278,22 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>datacite:Instrument</t>
+          <t>datacite:Image</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Instrument</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A device, tool or apparatus used to obtain, measure and/or analyze data.</t>
+          <t>A visual representation other than text.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1276,21 +1309,22 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>datacite:InteractiveResource</t>
+          <t>datacite:Instrument</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>InteractiveResource</t>
+          <t>Instrument</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A resource requiring interaction from the user to be understood, executed, or experienced.</t>
+          <t>A device, tool or apparatus used to obtain, measure and/or analyze data.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1306,21 +1340,22 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>datacite:Journal</t>
+          <t>datacite:InteractiveResource</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>InteractiveResource</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A scholarly publication consisting of articles that is published regularly throughout the year.</t>
+          <t>A resource requiring interaction from the user to be understood, executed, or experienced.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1336,21 +1371,22 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>datacite:JournalArticle</t>
+          <t>datacite:Journal</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JournalArticle</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A written composition on a topic of interest, which forms a separate part of a journal.</t>
+          <t>A scholarly publication consisting of articles that is published regularly throughout the year.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1366,21 +1402,22 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>datacite:Model</t>
+          <t>datacite:JournalArticle</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>JournalArticle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>An abstract, conceptual, graphical, mathematical or visualization model that represents empirical objects, phenomena, or physical processes.</t>
+          <t>A written composition on a topic of interest, which forms a separate part of a journal.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1396,21 +1433,22 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>datacite:OutputManagementPlan</t>
+          <t>datacite:Model</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OutputManagementPlan</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A formal document that outlines how research outputs are to be handled both during a research project and after the project is completed.</t>
+          <t>An abstract, conceptual, graphical, mathematical or visualization model that represents empirical objects, phenomena, or physical processes.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1426,21 +1464,22 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>datacite:PeerReview</t>
+          <t>datacite:OutputManagementPlan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PeerReview</t>
+          <t>OutputManagementPlan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Evaluation of scientific, academic, or professional work by others working in the same field.</t>
+          <t>A formal document that outlines how research outputs are to be handled both during a research project and after the project is completed.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1456,21 +1495,22 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>datacite:PhysicalObject</t>
+          <t>datacite:PeerReview</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PhysicalObject</t>
+          <t>PeerReview</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A physical object or substance.</t>
+          <t>Evaluation of scientific, academic, or professional work by others working in the same field.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1486,21 +1526,22 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>datacite:Preprint</t>
+          <t>datacite:PhysicalObject</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Preprint</t>
+          <t>PhysicalObject</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A version of a scholarly or scientific paper that precedes formal peer review and publication in a peer-reviewed scholarly or scientific journal.</t>
+          <t>A physical object or substance.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1516,21 +1557,22 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>datacite:Report</t>
+          <t>datacite:Preprint</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>Preprint</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A document that presents information in an organized format for a specific audience and purpose.</t>
+          <t>A version of a scholarly or scientific paper that precedes formal peer review and publication in a peer-reviewed scholarly or scientific journal.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1546,21 +1588,22 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>datacite:Service</t>
+          <t>datacite:Report</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>An organized system of apparatus, appliances, staff, etc., for supplying some function(s) required by end users.</t>
+          <t>A document that presents information in an organized format for a specific audience and purpose.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1576,21 +1619,22 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>datacite:Software</t>
+          <t>datacite:Service</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A computer program other than a computational notebook, in either source code (text) or compiled form. Use this type for general software components supporting scholarly research. Use the “ComputationalNotebook” value for virtual notebooks.</t>
+          <t>An organized system of apparatus, appliances, staff, etc., for supplying some function(s) required by end users.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1606,21 +1650,22 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>datacite:Sound</t>
+          <t>datacite:Software</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sound</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A resource primarily intended to be heard.</t>
+          <t>A computer program other than a computational notebook, in either source code (text) or compiled form. Use this type for general software components supporting scholarly research. Use the “ComputationalNotebook” value for virtual notebooks.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1636,21 +1681,22 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>datacite:Standard</t>
+          <t>datacite:Sound</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Sound</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Something established by authority, custom, or general consent as a model, example, or point of reference.</t>
+          <t>A resource primarily intended to be heard.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1666,21 +1712,22 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>datacite:StudyRegistration</t>
+          <t>datacite:Standard</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>StudyRegistration</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A detailed, time-stamped description of a research plan, often openly shared in a registry or published in a journal before the study is conducted to lend accountability and transparency in the hypothesis generating and testing process.</t>
+          <t>Something established by authority, custom, or general consent as a model, example, or point of reference.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1696,21 +1743,22 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>datacite:Text</t>
+          <t>datacite:StudyRegistration</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>StudyRegistration</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A resource consisting primarily of words for reading that is not covered by any other textual resource type in this list.</t>
+          <t>A detailed, time-stamped description of a research plan, often openly shared in a registry or published in a journal before the study is conducted to lend accountability and transparency in the hypothesis generating and testing process.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1726,21 +1774,22 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>datacite:Workflow</t>
+          <t>datacite:Text</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Workflow</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A structured series of steps which can be executed to produce a final outcome, allowing users a means to specify and enact their work in a more reproducible manner.</t>
+          <t>A resource consisting primarily of words for reading that is not covered by any other textual resource type in this list.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1756,21 +1805,22 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>datacite:Other</t>
+          <t>datacite:Workflow</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Workflow</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>If selected, supply a value for ResourceType.</t>
+          <t>A structured series of steps which can be executed to produce a final outcome, allowing users a means to specify and enact their work in a more reproducible manner.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1786,86 +1836,85 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>datacite:relatedIdentifierType</t>
+          <t>datacite:OtherResourceType</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>relatedIdentifierType</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The type of the RelatedIdentifier.</t>
+          <t>If selected, supply a value for ResourceType.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>datacite:resourceTypeGeneral</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>datacite:ARK</t>
+          <t>datacite:relatedIdentifierType</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>relatedIdentifierType</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A URI designed to support long-term access to information objects. In general, ARK syntax is of the form (brackets, []. indicate optional elements: [http://NMA/]ark:/NAAN/Name [Qualifier]</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Archival Resource Key</t>
-        </is>
-      </c>
+          <t>The type of the RelatedIdentifier.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>datacite:relatedIdentifierType</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>datacite:arXiv</t>
+          <t>datacite:ARK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>arXiv</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>arXiv.org is a repository of preprints of scientific papers in the fields of mathematics, physics, astronomy, computer science, quantitative biology, statistics, and quantitative finance.</t>
+          <t>A URI designed to support long-term access to information objects. In general, ARK syntax is of the form (brackets, []. indicate optional elements: [http://NMA/]ark:/NAAN/Name [Qualifier]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>arXiv identifier</t>
+          <t>Archival Resource Key</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1880,26 +1929,27 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>datacite:bibcode</t>
+          <t>datacite:arXiv</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bibcode</t>
+          <t>arXiv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A standardized 19-character identifier according to the syntax yyyyjjjjjvvvvmppppa. See http://info-uri.info/registry/OAIHandler?verb=GetRecord&amp;metadataPrefix=reg&amp;identifier=info:bibcode/.</t>
+          <t>arXiv.org is a repository of preprints of scientific papers in the fields of mathematics, physics, astronomy, computer science, quantitative biology, statistics, and quantitative finance.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Astrophysics Data System bibliographic codes</t>
+          <t>arXiv identifier</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1914,26 +1964,27 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>datacite:DOI</t>
+          <t>datacite:bibcode</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>bibcode</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A character string used to uniquely identify an object. A DOI name is divided into two parts, a prefix and a suffix, separated by a slash.</t>
+          <t>A standardized 19-character identifier according to the syntax yyyyjjjjjvvvvmppppa. See http://info-uri.info/registry/OAIHandler?verb=GetRecord&amp;metadataPrefix=reg&amp;identifier=info:bibcode/.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Digital Object Identifier</t>
+          <t>Astrophysics Data System bibliographic codes</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1948,26 +1999,27 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>datacite:EAN13</t>
+          <t>datacite:DOI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EAN13</t>
+          <t>DOI</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
+          <t>A character string used to uniquely identify an object. A DOI name is divided into two parts, a prefix and a suffix, separated by a slash.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>European Article Number (now renamed International Article Number, but retaining the original acronym)</t>
+          <t>Digital Object Identifier</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1982,26 +2034,27 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>datacite:EISSN</t>
+          <t>datacite:EAN13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EISSN</t>
+          <t>EAN13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ISSN used to identify periodicals in electronic form (eISSN or e-ISSN).</t>
+          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
+          <t>European Article Number (now renamed International Article Number, but retaining the original acronym)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2016,26 +2069,27 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>datacite:Handle</t>
+          <t>datacite:EISSN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Handle</t>
+          <t>EISSN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>This refers specifically to an ID in the Handle system operated by the Corporation for National Research Initiatives (CNRI).</t>
+          <t>ISSN used to identify periodicals in electronic form (eISSN or e-ISSN).</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Handle</t>
+          <t>A 13-digit barcoding standard that is a superset of the original 12-digit Universal Product Code (UPC) system.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2050,26 +2104,27 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>datacite:IGSN</t>
+          <t>datacite:Handle</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IGSN</t>
+          <t>Handle</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A code that uniquely identifies samples from our natural environment and related features-of-interest.</t>
+          <t>This refers specifically to an ID in the Handle system operated by the Corporation for National Research Initiatives (CNRI).</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>International Generic Sample Number</t>
+          <t>Handle</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2084,26 +2139,27 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>datacite:ISBN</t>
+          <t>datacite:IGSN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ISBN</t>
+          <t>IGSN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A unique numeric book identifier. There are 2 formats: a 10-digit ISBN format and a 13-digit ISBN.</t>
+          <t>A code that uniquely identifies samples from our natural environment and related features-of-interest.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>International Standard Book Number</t>
+          <t>International Generic Sample Number</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2118,26 +2174,27 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>datacite:ISSN</t>
+          <t>datacite:ISBN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ISSN</t>
+          <t>ISBN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A unique 8-digit number used to identify a print or electronic periodical publication.</t>
+          <t>A unique numeric book identifier. There are 2 formats: a 10-digit ISBN format and a 13-digit ISBN.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>International Standard Serial Number</t>
+          <t>International Standard Book Number</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2152,26 +2209,27 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>datacite:ISTC</t>
+          <t>datacite:ISSN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ISTC</t>
+          <t>ISSN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A unique “number” assigned to a textual work. An ISTC consists of 16 numbers and/or letters.</t>
+          <t>A unique 8-digit number used to identify a print or electronic periodical publication.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>International Standard Text Code</t>
+          <t>International Standard Serial Number</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2186,26 +2244,27 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>datacite:LISSN</t>
+          <t>datacite:ISTC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LISSN</t>
+          <t>ISTC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>The linking ISSN or ISSN-L enables collocation or linking among different media versions of a continuing resource.</t>
+          <t>A unique “number” assigned to a textual work. An ISTC consists of 16 numbers and/or letters.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Linking ISSN</t>
+          <t>International Standard Text Code</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2220,6 +2279,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2234,12 +2294,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A unique identifier for data in the Life Science domain. Format: urn:lsid:authority:namespace:identifier:revision.</t>
+          <t>The linking ISSN or ISSN-L enables collocation or linking among different media versions of a continuing resource.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Life Science Identifiers</t>
+          <t>Linking ISSN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2254,26 +2314,27 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>datacite:PMID</t>
+          <t>datacite:LISSN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PMID</t>
+          <t>LISSN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A unique number assigned to each PubMed record.</t>
+          <t>A unique identifier for data in the Life Science domain. Format: urn:lsid:authority:namespace:identifier:revision.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PubMed identifier</t>
+          <t>Life Science Identifiers</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2288,26 +2349,27 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>datacite:PURL</t>
+          <t>datacite:PMID</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PURL</t>
+          <t>PMID</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A PURL has three parts: (1) a protocol, (2) a resolver address, and (3) a name.</t>
+          <t>A unique number assigned to each PubMed record.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Persistent Uniform Resource Locator</t>
+          <t>PubMed identifier</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2322,26 +2384,27 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>datacite:UPC</t>
+          <t>datacite:PURL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>UPC</t>
+          <t>PURL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A barcode symbology used for tracking trade items in stores. Its most common form, the UPC-A, consists of 12 numerical digits.</t>
+          <t>A PURL has three parts: (1) a protocol, (2) a resolver address, and (3) a name.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Universal Product Code</t>
+          <t>Persistent Uniform Resource Locator</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2356,26 +2419,27 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>datacite:URL</t>
+          <t>datacite:UPC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>UPC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Also known as web address, a URL is a specific character string that constitutes a reference to a resource. The syntax is: scheme://domain:port/path?query_string#fragment_id.</t>
+          <t>A barcode symbology used for tracking trade items in stores. Its most common form, the UPC-A, consists of 12 numerical digits.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Uniform Resource Locator</t>
+          <t>Universal Product Code</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2390,26 +2454,27 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>datacite:URN</t>
+          <t>datacite:URL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>URN</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A unique and persistent identifier of an electronic document. The syntax is: urn:&lt;NID&gt;:&lt;NSS&gt;. The leading urn: sequence is case-insensitive, &lt;NID&gt; is the namespace identifier, &lt;NSS&gt; is the namespace-specific string.</t>
+          <t>Also known as web address, a URL is a specific character string that constitutes a reference to a resource. The syntax is: scheme://domain:port/path?query_string#fragment_id.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Uniform Resource Name</t>
+          <t>Uniform Resource Locator</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2424,26 +2489,27 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>datacite:w3id</t>
+          <t>datacite:URN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>w3id</t>
+          <t>URN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mostly used to publish vocabularies and ontologies. The letters ‘w3’ stand for “World Wide Web”.</t>
+          <t>A unique and persistent identifier of an electronic document. The syntax is: urn:&lt;NID&gt;:&lt;NSS&gt;. The leading urn: sequence is case-insensitive, &lt;NID&gt; is the namespace identifier, &lt;NSS&gt; is the namespace-specific string.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Permanent identifier for Web applications</t>
+          <t>Uniform Resource Name</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2458,77 +2524,84 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>datacite:relationType</t>
+          <t>datacite:w3id</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>relationType</t>
+          <t>w3id</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Description of the relationship of the resource being registered (A) and the related resource (B).</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>Mostly used to publish vocabularies and ontologies. The letters ‘w3’ stand for “World Wide Web”.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Permanent identifier for Web applications</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>datacite:relatedIdentifierType</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>datacite:IsCitedBy</t>
+          <t>datacite:relationType</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IsCitedBy</t>
+          <t>relationType</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>indicates that B includes A in a citation</t>
+          <t>Description of the relationship of the resource being registered (A) and the related resource (B).</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>datacite:relationType</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>datacite:Cites</t>
+          <t>datacite:IsCitedBy</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cites</t>
+          <t>IsCitedBy</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>indicates that A includes B in a citation</t>
+          <t>indicates that B includes A in a citation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2544,21 +2617,22 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>datacite:IsSupplementTo</t>
+          <t>datacite:Cites</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IsSupplementTo</t>
+          <t>Cites</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>indicates that A is a supplement to B</t>
+          <t>indicates that A includes B in a citation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2574,21 +2648,22 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>datacite:IsSupplementedBy</t>
+          <t>datacite:IsSupplementTo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>IsSupplementedBy</t>
+          <t>IsSupplementTo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>indicates that B is a supplement to A</t>
+          <t>indicates that A is a supplement to B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2604,21 +2679,22 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>datacite:IsContinuedBy</t>
+          <t>datacite:IsSupplementedBy</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>IsContinuedBy</t>
+          <t>IsSupplementedBy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>indicates A is continued by the work B</t>
+          <t>indicates that B is a supplement to A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2634,21 +2710,22 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>datacite:Continues</t>
+          <t>datacite:IsContinuedBy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Continues</t>
+          <t>IsContinuedBy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>indicates A is a continuation of the work B</t>
+          <t>indicates A is continued by the work B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2664,21 +2741,22 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>datacite:Describes</t>
+          <t>datacite:Continues</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Describes</t>
+          <t>Continues</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>indicates A describes B</t>
+          <t>indicates A is a continuation of the work B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2694,21 +2772,22 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>datacite:IsDescribedBy</t>
+          <t>datacite:Describes</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>IsDescribedBy</t>
+          <t>Describes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>indicates A is described by B</t>
+          <t>indicates A describes B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2724,21 +2803,22 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>datacite:HasMetadata</t>
+          <t>datacite:IsDescribedBy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HasMetadata</t>
+          <t>IsDescribedBy</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>indicates resource A has additional metadata B</t>
+          <t>indicates A is described by B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2754,21 +2834,22 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>datacite:IsMetadataFor</t>
+          <t>datacite:HasMetadata</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IsMetadataFor</t>
+          <t>HasMetadata</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>indicates additional metadata A for a resource B</t>
+          <t>indicates resource A has additional metadata B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2784,21 +2865,22 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>datacite:HasVersion</t>
+          <t>datacite:IsMetadataFor</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HasVersion</t>
+          <t>IsMetadataFor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>indicates A has a version B</t>
+          <t>indicates additional metadata A for a resource B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -2814,22 +2896,22 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>datacite:IsVersionOf</t>
+          <t>datacite:HasVersion</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IsVersionOf</t>
+          <t>HasVersion</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">indicates A is a version of B
-</t>
+          <t>indicates A has a version B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2845,21 +2927,23 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>datacite:IsNewVersionOf</t>
+          <t>datacite:IsVersionOf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IsNewVersionOf</t>
+          <t>IsVersionOf</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>indicates A is a new edition of B, where the new edition has been modified or updated</t>
+          <t xml:space="preserve">indicates A is a version of B
+</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -2875,21 +2959,22 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>datacite:IsPreviousVersionOf</t>
+          <t>datacite:IsNewVersionOf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IsPreviousVersion Of</t>
+          <t>IsNewVersionOf</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>indicates A is a previous edition of B</t>
+          <t>indicates A is a new edition of B, where the new edition has been modified or updated</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2905,21 +2990,22 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>datacite:IsPartOf</t>
+          <t>datacite:IsPreviousVersionOf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IsPartOf</t>
+          <t>IsPreviousVersion Of</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>indicates A is a portion of B; may be used for elements of a series</t>
+          <t>indicates A is a previous edition of B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2935,21 +3021,22 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>datacite:HasPart</t>
+          <t>datacite:IsPartOf</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HasPart</t>
+          <t>IsPartOf</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>indicates A includes the part B</t>
+          <t>indicates A is a portion of B; may be used for elements of a series</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2965,21 +3052,22 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>datacite:IsPublishedIn</t>
+          <t>datacite:HasPart</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IsPublishedIn</t>
+          <t>HasPart</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>indicates A is published inside B, but is independent of other things published inside of B</t>
+          <t>indicates A includes the part B</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -2995,21 +3083,22 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>datacite:IsReferencedBy</t>
+          <t>datacite:IsPublishedIn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IsReferencedBy</t>
+          <t>IsPublishedIn</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>indicates A is used as a source of information by B</t>
+          <t>indicates A is published inside B, but is independent of other things published inside of B</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3025,21 +3114,22 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>datacite:References</t>
+          <t>datacite:IsReferencedBy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>IsReferencedBy</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>indicates B is used as a source of information for A</t>
+          <t>indicates A is used as a source of information by B</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3055,21 +3145,22 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>datacite:IsDocumentedBy</t>
+          <t>datacite:References</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IsDocumentedBy</t>
+          <t>References</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>indicates B is documentation about/explaining A</t>
+          <t>indicates B is used as a source of information for A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3085,21 +3176,22 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>datacite:Documents</t>
+          <t>datacite:IsDocumentedBy</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Documents</t>
+          <t>IsDocumentedBy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>indicates A is documentation about/explaining B</t>
+          <t>indicates B is documentation about/explaining A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -3115,21 +3207,22 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>datacite:IsCompiledBy</t>
+          <t>datacite:Documents</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IsCompiledBy</t>
+          <t>Documents</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>indicates B is used to compile or create A</t>
+          <t>indicates A is documentation about/explaining B</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3145,22 +3238,22 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>datacite:Compiles</t>
+          <t>datacite:IsCompiledBy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Compiles</t>
+          <t>IsCompiledBy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">indicates B is the result of a compile or creation event using A
-</t>
+          <t>indicates B is used to compile or create A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3176,21 +3269,23 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>datacite:IsVariantFormOf</t>
+          <t>datacite:Compiles</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IsVariantFormOf</t>
+          <t>Compiles</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>indicates A is a variant or different form of B</t>
+          <t xml:space="preserve">indicates B is the result of a compile or creation event using A
+</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3206,21 +3301,22 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>datacite:IsOriginalFormOf</t>
+          <t>datacite:IsVariantFormOf</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IsOriginalFormOf</t>
+          <t>IsVariantFormOf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>indicates A is the original form of B</t>
+          <t>indicates A is a variant or different form of B</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -3236,22 +3332,22 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>datacite:IsIdenticalTo</t>
+          <t>datacite:IsOriginalFormOf</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IsIdenticalTo</t>
+          <t>IsOriginalFormOf</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">indicates that A is identical to B, for use when there is a need to register two separate instances of the same resource
-</t>
+          <t>indicates A is the original form of B</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3267,21 +3363,23 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>datacite:IsReviewedBy</t>
+          <t>datacite:IsIdenticalTo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IsReviewedBy</t>
+          <t>IsIdenticalTo</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>indicates that A is reviewed by B</t>
+          <t xml:space="preserve">indicates that A is identical to B, for use when there is a need to register two separate instances of the same resource
+</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -3297,21 +3395,22 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>datacite:Reviews</t>
+          <t>datacite:IsReviewedBy</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Reviews</t>
+          <t>IsReviewedBy</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>indicates that A is a review of B</t>
+          <t>indicates that A is reviewed by B</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -3327,21 +3426,22 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>datacite:IsDerivedFrom</t>
+          <t>datacite:Reviews</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IsDerivedFrom</t>
+          <t>Reviews</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>indicates B is a source upon which A is based</t>
+          <t>indicates that A is a review of B</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3357,21 +3457,22 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>datacite:IsSourceOf</t>
+          <t>datacite:IsDerivedFrom</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IsSourceOf</t>
+          <t>IsDerivedFrom</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>indicates A is a source upon which B is based</t>
+          <t>indicates B is a source upon which A is based</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3387,21 +3488,22 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>datacite:IsRequiredBy</t>
+          <t>datacite:IsSourceOf</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IsRequiredBy</t>
+          <t>IsSourceOf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Indicates A is required by B</t>
+          <t>indicates A is a source upon which B is based</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -3417,21 +3519,22 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>datacite:Requires</t>
+          <t>datacite:IsRequiredBy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Requires</t>
+          <t>IsRequiredBy</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Indicates A requires B</t>
+          <t>Indicates A is required by B</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3447,21 +3550,22 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>datacite:Obsoletes</t>
+          <t>datacite:Requires</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Obsoletes</t>
+          <t>Requires</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Indicates A replaces B</t>
+          <t>Indicates A requires B</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3477,21 +3581,22 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>datacite:IsRequiredBy</t>
+          <t>datacite:Obsoletes</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IsRequiredBy</t>
+          <t>Obsoletes</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Indicates A is replaced by B</t>
+          <t>Indicates A replaces B</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3507,21 +3612,22 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>datacite:IsCollectedBy</t>
+          <t>datacite:IsRequiredBy</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IsCollectedBy</t>
+          <t>IsRequiredBy</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Indicates A is collected by B</t>
+          <t>Indicates A is replaced by B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3537,21 +3643,22 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>datacite:Collects</t>
+          <t>datacite:IsCollectedBy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Collects</t>
+          <t>IsCollectedBy</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Indicates A collects B</t>
+          <t>Indicates A is collected by B</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -3567,77 +3674,80 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>datacite:descriptionType</t>
+          <t>datacite:Collects</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>descriptionType</t>
+          <t>Collects</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>The type of the Description.</t>
+          <t>Indicates A collects B</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>datacite:relationType</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>datacite:Abstract</t>
+          <t>datacite:descriptionType</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>descriptionType</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A brief description of the resource and the context in which the resource was created.</t>
+          <t>The type of the Description.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>datacite:descriptionType</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>datacite:Methods</t>
+          <t>datacite:Abstract</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Methods</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The methodology employed for the study or research.</t>
+          <t>A brief description of the resource and the context in which the resource was created.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -3653,21 +3763,22 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>datacite:SeriesInformation</t>
+          <t>datacite:Methods</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SeriesInformation</t>
+          <t>Methods</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Information about a repeating series, such as volume, issue, number.</t>
+          <t>The methodology employed for the study or research.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -3683,21 +3794,22 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>datacite:TableOfContents</t>
+          <t>datacite:SeriesInformation</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TableOfContents</t>
+          <t>SeriesInformation</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>A listing of the Table of Contents.</t>
+          <t>Information about a repeating series, such as volume, issue, number.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -3713,21 +3825,22 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>datacite:TechnicalInfo</t>
+          <t>datacite:TableOfContents</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TechnicalInfo</t>
+          <t>TableOfContents</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Detailed information that may be associated with design, implementation, operation, use, and/or maintenance of a process, system, or instrument.</t>
+          <t>A listing of the Table of Contents.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -3743,21 +3856,22 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>datacite:OtherDescriptionType</t>
+          <t>datacite:TechnicalInfo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TechnicalInfo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Other description information that does not fit into an existing category.</t>
+          <t>Detailed information that may be associated with design, implementation, operation, use, and/or maintenance of a process, system, or instrument.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -3773,72 +3887,75 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>datacite:dateType</t>
+          <t>datacite:OtherDescriptionType</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dateType</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>The type of date. Use RKMS‐ISO8601 standard for depicting date ranges.To indicate the end of an embargo period, use Available. To indicate the start of an embargo period, use Submitted or Accepted, as appropriate.</t>
+          <t>Other description information that does not fit into an existing category.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>datacite:descriptionType</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>datacite:Accepted</t>
+          <t>datacite:dateType</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>dateType</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>The date that the publisher accepted the resource into their system.</t>
+          <t>The type of date. Use RKMS‐ISO8601 standard for depicting date ranges.To indicate the end of an embargo period, use Available. To indicate the start of an embargo period, use Submitted or Accepted, as appropriate.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>datacite:dateType</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>datacite:Available</t>
+          <t>datacite:Accepted</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3859,21 +3976,22 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>datacite:Copyrighted</t>
+          <t>datacite:Available</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Copyrighted</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>The specific, documented date at which the resource receives a copyrighted status, if applicable.</t>
+          <t>The date that the publisher accepted the resource into their system.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -3889,21 +4007,22 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>datacite:Collected</t>
+          <t>datacite:Copyrighted</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Copyrighted</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The date or date range in which the resource content was collected.</t>
+          <t>The specific, documented date at which the resource receives a copyrighted status, if applicable.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -3919,21 +4038,22 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>datacite:Created</t>
+          <t>datacite:Collected</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The date the resource itself was put together; this could refer to a timeframe in ancient history, a date range, or a single date for a final component, e.g., the finalised file with all the data.</t>
+          <t>The date or date range in which the resource content was collected.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -3949,21 +4069,22 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>datacite:Issued</t>
+          <t>datacite:Created</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Issued</t>
+          <t>Created</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The date that the resource is published or distributed, e.g., to a data centre.</t>
+          <t>The date the resource itself was put together; this could refer to a timeframe in ancient history, a date range, or a single date for a final component, e.g., the finalised file with all the data.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -3979,21 +4100,22 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>datacite:OtherDateType</t>
+          <t>datacite:Issued</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Issued</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Other date that does not fit into an existing category.</t>
+          <t>The date that the resource is published or distributed, e.g., to a data centre.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4009,21 +4131,22 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>datacite:Submitted</t>
+          <t>datacite:OtherDateType</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The date the creator submits the resource to the publisher. This could be different from Accepted if the publisher then applies a selection process.</t>
+          <t>Other date that does not fit into an existing category.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4039,21 +4162,22 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>datacite:Updated</t>
+          <t>datacite:Submitted</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The date of the last update to the resource, when the resource is being added to. May be a range.</t>
+          <t>The date the creator submits the resource to the publisher. This could be different from Accepted if the publisher then applies a selection process.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4069,21 +4193,22 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>datacite:Valid</t>
+          <t>datacite:Updated</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Valid</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>The date or date range during which the dataset or resource is accurate.</t>
+          <t>The date of the last update to the resource, when the resource is being added to. May be a range.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -4099,21 +4224,22 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>datacite:Withdrawn</t>
+          <t>datacite:Valid</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Withdrawn</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The date the resource is removed.</t>
+          <t>The date or date range during which the dataset or resource is accurate.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4129,77 +4255,80 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>datacite:contributorType</t>
+          <t>datacite:Withdrawn</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>contributorType</t>
+          <t>Withdrawn</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>The type of contributor of the resource.</t>
+          <t>The date the resource is removed.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>datacite:dateType</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>datacite:ContactPerson</t>
+          <t>datacite:contributorType</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ContactPerson</t>
+          <t>contributorType</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Person with knowledge of how to access, troubleshoot, or otherwise field issues related to the resource.</t>
+          <t>The type of contributor of the resource.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>datacite:contributorType</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>datacite:DataCollector</t>
+          <t>datacite:ContactPerson</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DataCollector</t>
+          <t>ContactPerson</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Person/institution responsible for finding or gathering/collecting data under the guidelines of the author(s) or Principal Investigator (PI).</t>
+          <t>Person with knowledge of how to access, troubleshoot, or otherwise field issues related to the resource.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -4215,21 +4344,22 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>datacite:DataCurator</t>
+          <t>datacite:DataCollector</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DataCurator</t>
+          <t>DataCollector</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Person tasked with reviewing, enhancing, cleaning, or standardizing metadata and the associated data submitted for storage, use, and maintenance within a data centre or repository.</t>
+          <t>Person/institution responsible for finding or gathering/collecting data under the guidelines of the author(s) or Principal Investigator (PI).</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4245,21 +4375,22 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>datacite:DataManager</t>
+          <t>datacite:DataCurator</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DataManager</t>
+          <t>DataCurator</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Person (or organisation with a staff of data managers, such as a data centre) responsible for maintaining the finished resource.</t>
+          <t>Person tasked with reviewing, enhancing, cleaning, or standardizing metadata and the associated data submitted for storage, use, and maintenance within a data centre or repository.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -4275,21 +4406,22 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>datacite:Distributor</t>
+          <t>datacite:DataManager</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Distributor</t>
+          <t>DataManager</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Institution tasked with responsibility to generate/disseminate copies of the resource in either electronic or print form.</t>
+          <t>Person (or organisation with a staff of data managers, such as a data centre) responsible for maintaining the finished resource.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4305,21 +4437,22 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>datacite:Editor</t>
+          <t>datacite:Distributor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Distributor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>A person who oversees the details related to the publication format of the resource.</t>
+          <t>Institution tasked with responsibility to generate/disseminate copies of the resource in either electronic or print form.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -4335,21 +4468,22 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>datacite:HostingInstitution</t>
+          <t>datacite:Editor</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>HostingInstitution</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Typically, the organisation allowing the resource to be available on the internet through the provision of its hardware/software/operating support.</t>
+          <t>A person who oversees the details related to the publication format of the resource.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4365,21 +4499,22 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>datacite:Producer</t>
+          <t>datacite:HostingInstitution</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Producer</t>
+          <t>HostingInstitution</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Typically, a person or organisation responsible for the artistry and form of a media product.</t>
+          <t>Typically, the organisation allowing the resource to be available on the internet through the provision of its hardware/software/operating support.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -4395,21 +4530,22 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>datacite:ProjectLeader</t>
+          <t>datacite:Producer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ProjectLeader</t>
+          <t>Producer</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Person officially designated as head of project team or sub- project team instrumental in the work necessary to development of the resource.</t>
+          <t>Typically, a person or organisation responsible for the artistry and form of a media product.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4425,21 +4561,22 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>datacite:ProjectManager</t>
+          <t>datacite:ProjectLeader</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ProjectManager</t>
+          <t>ProjectLeader</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Person officially designated as manager of a project. Project may consist of one or many project teams and sub-teams.</t>
+          <t>Person officially designated as head of project team or sub- project team instrumental in the work necessary to development of the resource.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -4455,21 +4592,22 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>datacite:ProjectMember</t>
+          <t>datacite:ProjectManager</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ProjectMember</t>
+          <t>ProjectManager</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Person on the membership list of a designated project/project team.</t>
+          <t>Person officially designated as manager of a project. Project may consist of one or many project teams and sub-teams.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4485,21 +4623,22 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAgency</t>
+          <t>datacite:ProjectMember</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RegistrationAgency</t>
+          <t>ProjectMember</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Institution/organisation officially appointed by a Registration Authority to handle specific tasks within a defined area of responsibility.</t>
+          <t>Person on the membership list of a designated project/project team.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -4515,21 +4654,22 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>datacite:RegistrationAuthority</t>
+          <t>datacite:RegistrationAgency</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RegistrationAuthority</t>
+          <t>RegistrationAgency</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>A standards-setting body from which Registration Agencies obtain official recognition and guidance.</t>
+          <t>Institution/organisation officially appointed by a Registration Authority to handle specific tasks within a defined area of responsibility.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -4545,21 +4685,22 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>datacite:RelatedPerson</t>
+          <t>datacite:RegistrationAuthority</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>RegistrationAuthority</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A person without a specifically defined role in the development of the resource, but who is someone the author wishes to recognize.</t>
+          <t>A standards-setting body from which Registration Agencies obtain official recognition and guidance.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4575,21 +4716,22 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>datacite:Researcher</t>
+          <t>datacite:RelatedPerson</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Researcher</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A person involved in analysing data or the results of an experiment or formal study. May indicate an intern or assistant to one of the authors who helped with research but who was not so “key” as to be listed as an author.</t>
+          <t>A person without a specifically defined role in the development of the resource, but who is someone the author wishes to recognize.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -4605,21 +4747,22 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>datacite:ResearchGroup</t>
+          <t>datacite:Researcher</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ResearchGroup</t>
+          <t>Researcher</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Typically refers to a group of individuals with a lab, department, or division that has a specifically defined focus of activity.</t>
+          <t>A person involved in analysing data or the results of an experiment or formal study. May indicate an intern or assistant to one of the authors who helped with research but who was not so “key” as to be listed as an author.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -4635,21 +4778,22 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>datacite:RightsHolder</t>
+          <t>datacite:ResearchGroup</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RightsHolder</t>
+          <t>ResearchGroup</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Person or institution owning or managing property rights, including intellectual property rights over the resource.</t>
+          <t>Typically refers to a group of individuals with a lab, department, or division that has a specifically defined focus of activity.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -4665,21 +4809,22 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>datacite:Sponsor</t>
+          <t>datacite:RightsHolder</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sponsor</t>
+          <t>RightsHolder</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Person or organisation that issued a contract or under the auspices of which a work has been written, printed, published, developed, etc.</t>
+          <t>Person or institution owning or managing property rights, including intellectual property rights over the resource.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -4695,21 +4840,22 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>datacite:Supervisor</t>
+          <t>datacite:Sponsor</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Supervisor</t>
+          <t>Sponsor</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Designated administrator over one or more groups/teams working to produce a resource, or over one or more steps of a development process.</t>
+          <t>Person or organisation that issued a contract or under the auspices of which a work has been written, printed, published, developed, etc.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4725,21 +4871,22 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>datacite:WorkPackageLeader</t>
+          <t>datacite:Supervisor</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WorkPackageLeader</t>
+          <t>Supervisor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A Work Package is a recognized data product, not all of which is included in publication. The package, instead, may include notes, discarded documents, etc. The Work Package Leader is responsible for ensuring the comprehensive contents, versioning, and availability of the Work Package during the development of the resource.</t>
+          <t>Designated administrator over one or more groups/teams working to produce a resource, or over one or more steps of a development process.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -4755,21 +4902,22 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>datacite:OtherContributorType</t>
+          <t>datacite:WorkPackageLeader</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>WorkPackageLeader</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Any person or institution making a significant contribution to the development and/or maintenance of the resource, but whose contribution is not adequately described by any of the other values for contributorType.</t>
+          <t>A Work Package is a recognized data product, not all of which is included in publication. The package, instead, may include notes, discarded documents, etc. The Work Package Leader is responsible for ensuring the comprehensive contents, versioning, and availability of the Work Package during the development of the resource.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -4785,68 +4933,75 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>datacite:nameType</t>
+          <t>datacite:OtherContributorType</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>nameType</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The type of name.</t>
+          <t>Any person or institution making a significant contribution to the development and/or maintenance of the resource, but whose contribution is not adequately described by any of the other values for contributorType.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>datacite:contributorType</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>datacite:Personal</t>
+          <t>datacite:nameType</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>nameType</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>The type of name.</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>datacite:nameType</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>datacite:Organizational</t>
+          <t>datacite:Personal</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Organizational</t>
+          <t>Personal</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -4863,68 +5018,71 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>datacite:titleType</t>
+          <t>datacite:Organizational</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>titleType</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>The type of Title (other than the Main Title).</t>
-        </is>
-      </c>
+          <t>Organizational</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>datacite:nameType</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>datacite:AlternativeTitle</t>
+          <t>datacite:titleType</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AlternativeTitle</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>titleType</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>The type of Title (other than the Main Title).</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>datacite:titleType</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>datacite:Subtitle</t>
+          <t>datacite:AlternativeTitle</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Subtitle</t>
+          <t>AlternativeTitle</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -4941,16 +5099,17 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>datacite:TranslatedTitle</t>
+          <t>datacite:Subtitle</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TranslatedTitle</t>
+          <t>Subtitle</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4967,16 +5126,17 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>datacite:OtherTitle</t>
+          <t>datacite:TranslatedTitle</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>TranslatedTitle</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -4993,68 +5153,71 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>datacite:numberType</t>
+          <t>datacite:OtherTitleType</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>numberType</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Type of the related item’s number, e.g., report number or article number.</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>datacite:titleType</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>datacite:Article</t>
+          <t>datacite:numberType</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>numberType</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Type of the related item’s number, e.g., report number or article number.</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>datacite:numberType</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>datacite:Chapter</t>
+          <t>datacite:Article</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chapter</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -5071,16 +5234,17 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>datacite:Report</t>
+          <t>datacite:Chapter</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>Chapter</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -5097,16 +5261,17 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>datacite:Other</t>
+          <t>datacite:Report</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -5123,68 +5288,71 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>datacite:funderIdentifierType</t>
+          <t>datacite:OtherNumberType</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>funderIdentifierType</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>The type of the funderIdentifier.</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>datacite:numberType</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>datacite:ISNI</t>
+          <t>datacite:funderIdentifierType</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ISNI</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>funderIdentifierType</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>The type of the funderIdentifier.</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>datacite:funderIdentifierType</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>datacite:GRID</t>
+          <t>datacite:ISNI</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GRID</t>
+          <t>ISNI</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -5201,16 +5369,17 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>datacite:ROR</t>
+          <t>datacite:GRID</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ROR</t>
+          <t>GRID</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -5227,16 +5396,17 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>datacite:CrossrefFunderID</t>
+          <t>datacite:ROR</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Crossref Funder ID</t>
+          <t>ROR</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -5253,16 +5423,17 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>datacite:OtherFunderIdentifierType</t>
+          <t>datacite:CrossrefFunderID</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Crossref Funder ID</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -5279,6 +5450,34 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>datacite:OtherFunderIdentifierType</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>datacite:funderIdentifierType</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabularies/vocabulary.xlsx
+++ b/vocabularies/vocabulary.xlsx
@@ -967,7 +967,11 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#audiovisual</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -998,7 +1002,11 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#book</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1029,7 +1037,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#bookchapter</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1060,7 +1072,11 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#collection</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1091,7 +1107,11 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#computationalnotebook</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1122,7 +1142,11 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#conferencepaper</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1153,7 +1177,11 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#conferenceproceeding</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1184,7 +1212,11 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#datapaper</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1215,7 +1247,11 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#dataset</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1246,7 +1282,11 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#dissertation</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1277,7 +1317,11 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#event</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1308,7 +1352,11 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#image</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1339,7 +1387,11 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#instrument</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1370,7 +1422,11 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#interactiveresource</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1401,7 +1457,11 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#journal</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1432,7 +1492,11 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#journalarticle</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1463,7 +1527,11 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#model</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1494,7 +1562,11 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#outputmanagementplan</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1525,7 +1597,11 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#peerreview</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1556,7 +1632,11 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#physicalobject</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1587,7 +1667,11 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#preprint</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1618,7 +1702,11 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#report</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1649,7 +1737,11 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#service</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1680,7 +1772,11 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#software</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1711,7 +1807,11 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#sound</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1742,7 +1842,11 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#standard</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1773,7 +1877,11 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#studyregistration</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1804,7 +1912,11 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#text</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1835,7 +1947,11 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#workflow</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1866,7 +1982,11 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/resourceTypeGeneral/#other</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1893,7 +2013,11 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1928,7 +2052,11 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#ark</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1963,7 +2091,11 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#arxiv</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1998,7 +2130,11 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#bibcode</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2033,7 +2169,11 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#doi</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2068,7 +2208,11 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#ean13</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -2103,7 +2247,11 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#eissn</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2138,7 +2286,11 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#handle</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2173,7 +2325,11 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#igsn</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2208,7 +2364,11 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#isbn</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2243,7 +2403,11 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#issn</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2278,7 +2442,11 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#istc</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2313,7 +2481,11 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#lissn</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2348,7 +2520,11 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#lissn</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2383,7 +2559,11 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#pmid</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2418,7 +2598,11 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#purl</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2453,7 +2637,11 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#upc</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2488,7 +2676,11 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#url</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2523,7 +2715,11 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#urn</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2558,7 +2754,11 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relatedIdentifierType/#w3id</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2585,7 +2785,11 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2616,7 +2820,11 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#iscitedby</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2647,7 +2855,11 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#cites</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2678,7 +2890,11 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#issupplementto</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2709,7 +2925,11 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#issupplementedby</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2740,7 +2960,11 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#iscontinuedby</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2771,7 +2995,11 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#continues</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2802,7 +3030,11 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#describes</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2833,7 +3065,11 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isdescribedby</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2864,7 +3100,11 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#hasmetadata</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2895,7 +3135,11 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#ismetadatafor</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -2926,7 +3170,11 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#hasversion</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2958,7 +3206,11 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isversionof</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2989,7 +3241,11 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isnewversionof</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3020,7 +3276,11 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#ispreviousversion of</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3051,7 +3311,11 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#ispartof</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3082,7 +3346,11 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#haspart</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -3113,7 +3381,11 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#ispublishedin</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3144,7 +3416,11 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isreferencedby</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -3175,7 +3451,11 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#references</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3206,7 +3486,11 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isdocumentedby</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3237,7 +3521,11 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#documents</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3268,7 +3556,11 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#iscompiledby</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3300,7 +3592,11 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#compiles</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3331,7 +3627,11 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isvariantformof</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3362,7 +3662,11 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isoriginalformof</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3394,7 +3698,11 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isidenticalto</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3425,7 +3733,11 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isreviewedby</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3456,7 +3768,11 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#reviews</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3487,7 +3803,11 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isderivedfrom</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3518,7 +3838,11 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#issourceof</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3549,7 +3873,11 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isrequiredby</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3580,7 +3908,11 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#requires</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -3611,7 +3943,11 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#obsoletes</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3642,7 +3978,11 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#isrequiredby</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -3673,7 +4013,11 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#iscollectedby</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3704,7 +4048,11 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/relationType/#collects</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3731,7 +4079,11 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -3762,7 +4114,11 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#abstract</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -3793,7 +4149,11 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#methods</t>
+        </is>
+      </c>
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -3824,7 +4184,11 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#seriesinformation</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -3855,7 +4219,11 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#tableofcontents</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -3886,7 +4254,11 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#technicalinfo</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3917,7 +4289,11 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/descriptionType/#other</t>
+        </is>
+      </c>
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3944,7 +4320,11 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/</t>
+        </is>
+      </c>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -3975,7 +4355,11 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#accepted</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4006,7 +4390,11 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#available</t>
+        </is>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4037,7 +4425,11 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#copyrighted</t>
+        </is>
+      </c>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4068,7 +4460,11 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#collected</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4099,7 +4495,11 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#created</t>
+        </is>
+      </c>
       <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -4130,7 +4530,11 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#issued</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4161,7 +4565,11 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#other</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4192,7 +4600,11 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#submitted</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4223,7 +4635,11 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#updated</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -4254,7 +4670,11 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#valid</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4285,7 +4705,11 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/dateType/#withdrawn</t>
+        </is>
+      </c>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -4312,7 +4736,11 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/</t>
+        </is>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4343,7 +4771,11 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#contactperson</t>
+        </is>
+      </c>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4374,7 +4806,11 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#datacollector</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4405,7 +4841,11 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#datacurator</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -4436,7 +4876,11 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#datamanager</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -4467,7 +4911,11 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#distributor</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -4498,7 +4946,11 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#editor</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4529,7 +4981,11 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#hostinginstitution</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -4560,7 +5016,11 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#producer</t>
+        </is>
+      </c>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -4591,7 +5051,11 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#projectleader</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -4622,7 +5086,11 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#projectmanager</t>
+        </is>
+      </c>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -4653,7 +5121,11 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#projectmember</t>
+        </is>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -4684,7 +5156,11 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#registrationagency</t>
+        </is>
+      </c>
       <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -4715,7 +5191,11 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#registrationauthority</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -4746,7 +5226,11 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#relatedperson</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -4777,7 +5261,11 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#researcher</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -4808,7 +5296,11 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#researchgroup</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -4839,7 +5331,11 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#rightsholder</t>
+        </is>
+      </c>
       <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -4870,7 +5366,11 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#sponsor</t>
+        </is>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -4901,7 +5401,11 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#supervisor</t>
+        </is>
+      </c>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -4932,7 +5436,11 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#workpackageleader</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -4963,7 +5471,11 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>rtd:appendix-1/contributorType/#other</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -4990,7 +5502,11 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>rtd:properties/creator/#a-nametype</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5017,7 +5533,11 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>rtd:properties/creator/#a-nametype</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -5044,7 +5564,11 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>rtd:properties/creator/#a-nametype</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5071,7 +5595,11 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>rtd:properties/title/#a-title-type</t>
+        </is>
+      </c>
       <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -5098,7 +5626,11 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>rtd:properties/title/#a-title-type</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -5125,7 +5657,11 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>rtd:properties/title/#a-title-type</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5152,7 +5688,11 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>rtd:properties/title/#a-title-type</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -5179,7 +5719,11 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>rtd:properties/title/#a-title-type</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -5206,7 +5750,11 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>rtd:properties/relateditem/#a-numbertype</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -5233,7 +5781,11 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>rtd:properties/relateditem/#a-numbertype</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -5260,7 +5812,11 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>rtd:properties/relateditem/#a-numbertype</t>
+        </is>
+      </c>
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -5287,7 +5843,11 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>rtd:properties/relateditem/#a-numbertype</t>
+        </is>
+      </c>
       <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -5314,7 +5874,11 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>rtd:properties/relateditem/#a-numbertype</t>
+        </is>
+      </c>
       <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -5341,7 +5905,11 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -5368,7 +5936,11 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -5395,7 +5967,11 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -5422,7 +5998,11 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -5449,7 +6029,11 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -5476,7 +6060,11 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>rtd:properties/fundingreference/#a-funderidentifiertype</t>
+        </is>
+      </c>
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>

--- a/vocabularies/vocabulary.xlsx
+++ b/vocabularies/vocabulary.xlsx
@@ -934,7 +934,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -969,7 +969,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#audiovisual</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#audiovisual</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#book</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#book</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#bookchapter</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#bookchapter</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#collection</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#collection</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#computationalnotebook</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#computationalnotebook</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#conferencepaper</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#conferencepaper</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#conferenceproceeding</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#conferenceproceeding</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#datapaper</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#datapaper</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#dataset</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#dataset</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#dissertation</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#dissertation</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1319,7 +1319,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#event</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#event</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#image</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#image</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#instrument</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#instrument</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -1424,7 +1424,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#interactiveresource</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#interactiveresource</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -1459,7 +1459,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#journal</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#journal</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#journalarticle</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#journalarticle</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -1529,7 +1529,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#model</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#model</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#outputmanagementplan</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#outputmanagementplan</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -1599,7 +1599,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#peerreview</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#peerreview</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#physicalobject</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#physicalobject</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -1669,7 +1669,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#preprint</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#preprint</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#report</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#report</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -1739,7 +1739,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#service</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#service</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#software</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#software</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#sound</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#sound</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#standard</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#standard</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -1879,7 +1879,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#studyregistration</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#studyregistration</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#text</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#text</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -1949,7 +1949,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#workflow</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#workflow</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/resourceTypeGeneral/#other</t>
+          <t>rtd:appendices/appendix-1/resourceTypeGeneral/#other</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2015,7 +2015,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#ark</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#ark</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2093,7 +2093,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#arxiv</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#arxiv</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#bibcode</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#bibcode</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#doi</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#doi</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#ean13</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#ean13</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2249,7 +2249,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#eissn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#eissn</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#handle</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#handle</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -2327,7 +2327,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#igsn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#igsn</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#isbn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#isbn</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#issn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#issn</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#istc</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#istc</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#lissn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#lissn</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#lissn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#lissn</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#pmid</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#pmid</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#purl</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#purl</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#upc</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#upc</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#url</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#url</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -2717,7 +2717,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#urn</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#urn</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relatedIdentifierType/#w3id</t>
+          <t>rtd:appendices/appendix-1/relatedIdentifierType/#w3id</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -2787,7 +2787,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/</t>
+          <t>rtd:appendices/appendix-1/relationType/</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#iscitedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#iscitedby</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -2857,7 +2857,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#cites</t>
+          <t>rtd:appendices/appendix-1/relationType/#cites</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -2892,7 +2892,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#issupplementto</t>
+          <t>rtd:appendices/appendix-1/relationType/#issupplementto</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -2927,7 +2927,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#issupplementedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#issupplementedby</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#iscontinuedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#iscontinuedby</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -2997,7 +2997,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#continues</t>
+          <t>rtd:appendices/appendix-1/relationType/#continues</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3032,7 +3032,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#describes</t>
+          <t>rtd:appendices/appendix-1/relationType/#describes</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3067,7 +3067,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isdescribedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isdescribedby</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3102,7 +3102,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#hasmetadata</t>
+          <t>rtd:appendices/appendix-1/relationType/#hasmetadata</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3137,7 +3137,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#ismetadatafor</t>
+          <t>rtd:appendices/appendix-1/relationType/#ismetadatafor</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -3172,7 +3172,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#hasversion</t>
+          <t>rtd:appendices/appendix-1/relationType/#hasversion</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -3208,7 +3208,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isversionof</t>
+          <t>rtd:appendices/appendix-1/relationType/#isversionof</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isnewversionof</t>
+          <t>rtd:appendices/appendix-1/relationType/#isnewversionof</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#ispreviousversion of</t>
+          <t>rtd:appendices/appendix-1/relationType/#ispreviousversion of</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -3313,7 +3313,7 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#ispartof</t>
+          <t>rtd:appendices/appendix-1/relationType/#ispartof</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -3348,7 +3348,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#haspart</t>
+          <t>rtd:appendices/appendix-1/relationType/#haspart</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -3383,7 +3383,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#ispublishedin</t>
+          <t>rtd:appendices/appendix-1/relationType/#ispublishedin</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -3418,7 +3418,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isreferencedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isreferencedby</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#references</t>
+          <t>rtd:appendices/appendix-1/relationType/#references</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -3488,7 +3488,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isdocumentedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isdocumentedby</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -3523,7 +3523,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#documents</t>
+          <t>rtd:appendices/appendix-1/relationType/#documents</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -3558,7 +3558,7 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#iscompiledby</t>
+          <t>rtd:appendices/appendix-1/relationType/#iscompiledby</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -3594,7 +3594,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#compiles</t>
+          <t>rtd:appendices/appendix-1/relationType/#compiles</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -3629,7 +3629,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isvariantformof</t>
+          <t>rtd:appendices/appendix-1/relationType/#isvariantformof</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isoriginalformof</t>
+          <t>rtd:appendices/appendix-1/relationType/#isoriginalformof</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -3700,7 +3700,7 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isidenticalto</t>
+          <t>rtd:appendices/appendix-1/relationType/#isidenticalto</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isreviewedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isreviewedby</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -3770,7 +3770,7 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#reviews</t>
+          <t>rtd:appendices/appendix-1/relationType/#reviews</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -3805,7 +3805,7 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isderivedfrom</t>
+          <t>rtd:appendices/appendix-1/relationType/#isderivedfrom</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -3840,7 +3840,7 @@
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#issourceof</t>
+          <t>rtd:appendices/appendix-1/relationType/#issourceof</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -3875,7 +3875,7 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isrequiredby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isrequiredby</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -3910,7 +3910,7 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#requires</t>
+          <t>rtd:appendices/appendix-1/relationType/#requires</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -3945,7 +3945,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#obsoletes</t>
+          <t>rtd:appendices/appendix-1/relationType/#obsoletes</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#isrequiredby</t>
+          <t>rtd:appendices/appendix-1/relationType/#isrequiredby</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#iscollectedby</t>
+          <t>rtd:appendices/appendix-1/relationType/#iscollectedby</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/relationType/#collects</t>
+          <t>rtd:appendices/appendix-1/relationType/#collects</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/</t>
+          <t>rtd:appendices/appendix-1/descriptionType/</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -4116,7 +4116,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#abstract</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#abstract</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -4151,7 +4151,7 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#methods</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#methods</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -4186,7 +4186,7 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#seriesinformation</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#seriesinformation</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#tableofcontents</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#tableofcontents</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -4256,7 +4256,7 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#technicalinfo</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#technicalinfo</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -4291,7 +4291,7 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/descriptionType/#other</t>
+          <t>rtd:appendices/appendix-1/descriptionType/#other</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -4322,7 +4322,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/</t>
+          <t>rtd:appendices/appendix-1/dateType/</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -4357,7 +4357,7 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#accepted</t>
+          <t>rtd:appendices/appendix-1/dateType/#accepted</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -4392,7 +4392,7 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#available</t>
+          <t>rtd:appendices/appendix-1/dateType/#available</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -4427,7 +4427,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#copyrighted</t>
+          <t>rtd:appendices/appendix-1/dateType/#copyrighted</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -4462,7 +4462,7 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#collected</t>
+          <t>rtd:appendices/appendix-1/dateType/#collected</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -4497,7 +4497,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#created</t>
+          <t>rtd:appendices/appendix-1/dateType/#created</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -4532,7 +4532,7 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#issued</t>
+          <t>rtd:appendices/appendix-1/dateType/#issued</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -4567,7 +4567,7 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#other</t>
+          <t>rtd:appendices/appendix-1/dateType/#other</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -4602,7 +4602,7 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#submitted</t>
+          <t>rtd:appendices/appendix-1/dateType/#submitted</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -4637,7 +4637,7 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#updated</t>
+          <t>rtd:appendices/appendix-1/dateType/#updated</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -4672,7 +4672,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#valid</t>
+          <t>rtd:appendices/appendix-1/dateType/#valid</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/dateType/#withdrawn</t>
+          <t>rtd:appendices/appendix-1/dateType/#withdrawn</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -4738,7 +4738,7 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/</t>
+          <t>rtd:appendices/appendix-1/contributorType/</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#contactperson</t>
+          <t>rtd:appendices/appendix-1/contributorType/#contactperson</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#datacollector</t>
+          <t>rtd:appendices/appendix-1/contributorType/#datacollector</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -4843,7 +4843,7 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#datacurator</t>
+          <t>rtd:appendices/appendix-1/contributorType/#datacurator</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -4878,7 +4878,7 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#datamanager</t>
+          <t>rtd:appendices/appendix-1/contributorType/#datamanager</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -4913,7 +4913,7 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#distributor</t>
+          <t>rtd:appendices/appendix-1/contributorType/#distributor</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -4948,7 +4948,7 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#editor</t>
+          <t>rtd:appendices/appendix-1/contributorType/#editor</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -4983,7 +4983,7 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#hostinginstitution</t>
+          <t>rtd:appendices/appendix-1/contributorType/#hostinginstitution</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -5018,7 +5018,7 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#producer</t>
+          <t>rtd:appendices/appendix-1/contributorType/#producer</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -5053,7 +5053,7 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#projectleader</t>
+          <t>rtd:appendices/appendix-1/contributorType/#projectleader</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -5088,7 +5088,7 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#projectmanager</t>
+          <t>rtd:appendices/appendix-1/contributorType/#projectmanager</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -5123,7 +5123,7 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#projectmember</t>
+          <t>rtd:appendices/appendix-1/contributorType/#projectmember</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -5158,7 +5158,7 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#registrationagency</t>
+          <t>rtd:appendices/appendix-1/contributorType/#registrationagency</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -5193,7 +5193,7 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#registrationauthority</t>
+          <t>rtd:appendices/appendix-1/contributorType/#registrationauthority</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#relatedperson</t>
+          <t>rtd:appendices/appendix-1/contributorType/#relatedperson</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -5263,7 +5263,7 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#researcher</t>
+          <t>rtd:appendices/appendix-1/contributorType/#researcher</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -5298,7 +5298,7 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#researchgroup</t>
+          <t>rtd:appendices/appendix-1/contributorType/#researchgroup</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -5333,7 +5333,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#rightsholder</t>
+          <t>rtd:appendices/appendix-1/contributorType/#rightsholder</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#sponsor</t>
+          <t>rtd:appendices/appendix-1/contributorType/#sponsor</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -5403,7 +5403,7 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#supervisor</t>
+          <t>rtd:appendices/appendix-1/contributorType/#supervisor</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -5438,7 +5438,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#workpackageleader</t>
+          <t>rtd:appendices/appendix-1/contributorType/#workpackageleader</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -5473,7 +5473,7 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>rtd:appendix-1/contributorType/#other</t>
+          <t>rtd:appendices/appendix-1/contributorType/#other</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
